--- a/backup_xls/vistosi_originario_nuovi_colori.xlsx
+++ b/backup_xls/vistosi_originario_nuovi_colori.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-33200" yWindow="-4420" windowWidth="29960" windowHeight="16180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7723" uniqueCount="2479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7723" uniqueCount="2478">
   <si>
     <t>Descrizione</t>
   </si>
@@ -7415,9 +7415,6 @@
     <t>Attacco</t>
   </si>
   <si>
-    <t>NARANZA SP Poco</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -7454,9 +7451,6 @@
     <t>cristallo/trasparte</t>
   </si>
   <si>
-    <t>mero</t>
-  </si>
-  <si>
     <t>cristallo/cristall argento</t>
   </si>
   <si>
@@ -7467,6 +7461,9 @@
   </si>
   <si>
     <t>fume/trasparente</t>
+  </si>
+  <si>
+    <t>NARANZA SP P</t>
   </si>
 </sst>
 </file>
@@ -7960,7 +7957,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7970,8 +7967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A867" workbookViewId="0">
+      <selection activeCell="F890" sqref="F890"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8013,7 +8010,7 @@
         <v>2460</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
@@ -8088,7 +8085,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>4</v>
@@ -8117,7 +8114,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>4</v>
@@ -8268,7 +8265,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -8299,7 +8296,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>4</v>
@@ -8648,7 +8645,7 @@
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -8681,7 +8678,7 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>4</v>
@@ -8714,7 +8711,7 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
@@ -8747,7 +8744,7 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>4</v>
@@ -9778,7 +9775,7 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
@@ -12219,7 +12216,7 @@
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>4</v>
@@ -12568,7 +12565,7 @@
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>4</v>
@@ -12601,7 +12598,7 @@
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>4</v>
@@ -12634,7 +12631,7 @@
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>4</v>
@@ -12667,7 +12664,7 @@
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>4</v>
@@ -13084,7 +13081,7 @@
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>4</v>
@@ -13332,7 +13329,7 @@
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>4</v>
@@ -13363,7 +13360,7 @@
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>4</v>
@@ -13545,7 +13542,7 @@
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>4</v>
@@ -13576,7 +13573,7 @@
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>4</v>
@@ -13607,7 +13604,7 @@
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>4</v>
@@ -14500,7 +14497,7 @@
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>473</v>
@@ -14616,7 +14613,7 @@
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>473</v>
@@ -26917,7 +26914,7 @@
       </c>
       <c r="D613" s="3"/>
       <c r="E613" s="3" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="F613" s="3" t="s">
         <v>1296</v>
@@ -32466,7 +32463,7 @@
       </c>
       <c r="D792" s="3"/>
       <c r="E792" s="3" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="F792" s="3" t="s">
         <v>1296</v>
@@ -32497,7 +32494,7 @@
       </c>
       <c r="D793" s="3"/>
       <c r="E793" s="3" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="F793" s="3" t="s">
         <v>1296</v>
@@ -33148,7 +33145,7 @@
       </c>
       <c r="D814" s="3"/>
       <c r="E814" s="3" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="F814" s="3" t="s">
         <v>1296</v>
@@ -33334,7 +33331,7 @@
       </c>
       <c r="D820" s="3"/>
       <c r="E820" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F820" s="3" t="s">
         <v>1296</v>
@@ -33365,7 +33362,7 @@
       </c>
       <c r="D821" s="3"/>
       <c r="E821" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F821" s="3" t="s">
         <v>1296</v>
@@ -33768,7 +33765,7 @@
       </c>
       <c r="D834" s="3"/>
       <c r="E834" s="9" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F834" s="3" t="s">
         <v>1296</v>
@@ -34264,7 +34261,7 @@
       </c>
       <c r="D850" s="3"/>
       <c r="E850" s="3" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="F850" s="3" t="s">
         <v>1296</v>
@@ -34295,7 +34292,7 @@
       </c>
       <c r="D851" s="3"/>
       <c r="E851" s="3" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="F851" s="3" t="s">
         <v>1296</v>
@@ -34574,7 +34571,7 @@
       </c>
       <c r="D860" s="3"/>
       <c r="E860" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F860" s="3" t="s">
         <v>1296</v>
@@ -34605,7 +34602,7 @@
       </c>
       <c r="D861" s="3"/>
       <c r="E861" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F861" s="3" t="s">
         <v>1296</v>
@@ -35411,7 +35408,7 @@
       </c>
       <c r="D887" s="3"/>
       <c r="E887" s="9" t="s">
-        <v>2474</v>
+        <v>189</v>
       </c>
       <c r="F887" s="3" t="s">
         <v>1296</v>
@@ -35442,7 +35439,7 @@
       </c>
       <c r="D888" s="3"/>
       <c r="E888" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F888" s="3" t="s">
         <v>1296</v>
@@ -35473,7 +35470,7 @@
       </c>
       <c r="D889" s="3"/>
       <c r="E889" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F889" s="3" t="s">
         <v>1296</v>
@@ -36062,7 +36059,7 @@
       </c>
       <c r="D908" s="3"/>
       <c r="E908" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F908" s="3" t="s">
         <v>1296</v>
@@ -36093,7 +36090,7 @@
       </c>
       <c r="D909" s="3"/>
       <c r="E909" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F909" s="3" t="s">
         <v>1296</v>
@@ -36682,7 +36679,7 @@
       </c>
       <c r="D928" s="3"/>
       <c r="E928" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F928" s="3" t="s">
         <v>1296</v>
@@ -36713,7 +36710,7 @@
       </c>
       <c r="D929" s="3"/>
       <c r="E929" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F929" s="3" t="s">
         <v>1296</v>
@@ -37023,7 +37020,7 @@
       </c>
       <c r="D939" s="3"/>
       <c r="E939" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F939" s="3" t="s">
         <v>1296</v>
@@ -37054,7 +37051,7 @@
       </c>
       <c r="D940" s="3"/>
       <c r="E940" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F940" s="3" t="s">
         <v>1296</v>
@@ -37581,7 +37578,7 @@
       </c>
       <c r="D957" s="3"/>
       <c r="E957" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F957" s="3" t="s">
         <v>1296</v>
@@ -37612,7 +37609,7 @@
       </c>
       <c r="D958" s="3"/>
       <c r="E958" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F958" s="3" t="s">
         <v>1296</v>
@@ -38263,7 +38260,7 @@
       </c>
       <c r="D979" s="3"/>
       <c r="E979" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F979" s="3" t="s">
         <v>1296</v>
@@ -38294,7 +38291,7 @@
       </c>
       <c r="D980" s="3"/>
       <c r="E980" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F980" s="3" t="s">
         <v>1296</v>
@@ -38883,7 +38880,7 @@
       </c>
       <c r="D999" s="3"/>
       <c r="E999" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F999" s="3" t="s">
         <v>1296</v>
@@ -38914,7 +38911,7 @@
       </c>
       <c r="D1000" s="3"/>
       <c r="E1000" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F1000" s="3" t="s">
         <v>1296</v>
@@ -39069,7 +39066,7 @@
       </c>
       <c r="D1005" s="3"/>
       <c r="E1005" s="9" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="F1005" s="3" t="s">
         <v>1296</v>
@@ -39317,7 +39314,7 @@
       </c>
       <c r="D1013" s="3"/>
       <c r="E1013" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F1013" s="3" t="s">
         <v>1296</v>
@@ -40526,7 +40523,7 @@
       </c>
       <c r="D1052" s="3"/>
       <c r="E1052" s="3" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="F1052" s="3" t="s">
         <v>1296</v>
@@ -40588,7 +40585,7 @@
       </c>
       <c r="D1054" s="3"/>
       <c r="E1054" s="3" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="F1054" s="3" t="s">
         <v>1296</v>
@@ -40774,7 +40771,7 @@
       </c>
       <c r="D1060" s="3"/>
       <c r="E1060" s="3" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="F1060" s="3" t="s">
         <v>1296</v>
@@ -40836,7 +40833,7 @@
       </c>
       <c r="D1062" s="3"/>
       <c r="E1062" s="3" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="F1062" s="3" t="s">
         <v>1296</v>
@@ -41022,7 +41019,7 @@
       </c>
       <c r="D1068" s="3"/>
       <c r="E1068" s="3" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="F1068" s="3" t="s">
         <v>1296</v>
@@ -41084,7 +41081,7 @@
       </c>
       <c r="D1070" s="3"/>
       <c r="E1070" s="3" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="F1070" s="3" t="s">
         <v>1296</v>
@@ -41270,7 +41267,7 @@
       </c>
       <c r="D1076" s="3"/>
       <c r="E1076" s="3" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="F1076" s="3" t="s">
         <v>1296</v>
@@ -41332,7 +41329,7 @@
       </c>
       <c r="D1078" s="3"/>
       <c r="E1078" s="3" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="F1078" s="3" t="s">
         <v>1296</v>
@@ -41551,7 +41548,7 @@
       <c r="G1085" s="3"/>
       <c r="H1085" s="3"/>
       <c r="I1085" s="3" t="s">
-        <v>2461</v>
+        <v>2477</v>
       </c>
       <c r="J1085" s="4" t="s">
         <v>6</v>
@@ -41818,7 +41815,7 @@
       </c>
       <c r="D1094" s="3"/>
       <c r="E1094" s="3" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="F1094" s="3" t="s">
         <v>1296</v>
@@ -41849,7 +41846,7 @@
       </c>
       <c r="D1095" s="3"/>
       <c r="E1095" s="3" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="F1095" s="3" t="s">
         <v>1296</v>
